--- a/REGULAR/RE-ENCODE/BAYOT, EMILIANA.xlsx
+++ b/REGULAR/RE-ENCODE/BAYOT, EMILIANA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54678929-D228-4AA7-AA90-AE6278B21D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0913C6-91E3-42A0-96F1-2A30F81797C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -707,6 +707,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,9 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3110,9 +3110,9 @@
   <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A95" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3134,58 +3134,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3211,18 +3211,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3269,7 +3269,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>92.044000000000011</v>
+        <v>87.044000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5092,11 +5092,15 @@
       <c r="A92" s="40">
         <v>44531</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
@@ -5430,7 +5434,7 @@
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="61">
+      <c r="K108" s="49">
         <v>44931</v>
       </c>
     </row>
@@ -6508,17 +6512,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6603,12 +6607,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
